--- a/report/reliability/comb/Instituto de Geografia, Desenvolvimento e Meio Ambiente - IGDEMA-Graduação (licenciatura).xlsx
+++ b/report/reliability/comb/Instituto de Geografia, Desenvolvimento e Meio Ambiente - IGDEMA-Graduação (licenciatura).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1016,11 +1019,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -1819,6 +1817,11 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3400,6 +3403,7 @@
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3427,14 +3431,13 @@
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3443,6 +3446,7 @@
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3458,14 +3462,13 @@
     <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3473,6 +3476,7 @@
     <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3488,20 +3492,20 @@
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3517,20 +3521,20 @@
     <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3558,14 +3562,13 @@
     <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3574,6 +3577,7 @@
     <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3589,14 +3593,13 @@
     <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3604,6 +3607,7 @@
     <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3619,20 +3623,20 @@
     <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3648,14 +3652,13 @@
     <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4128,31 +4131,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7986323731904176</v>
+        <v>0.8132578559711813</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8048341993753992</v>
+        <v>0.8342764034392156</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9381682142595127</v>
+        <v>0.950053188948652</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.25576080796712136</v>
+        <v>0.2791451482578349</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>4.123848526737987</v>
+        <v>5.034143723360596</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.047746703940522876</v>
+        <v>0.041637685726992356</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.56875</v>
+        <v>1.9903846153846154</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.8386343149698885</v>
+        <v>0.7678859052393991</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.21211417177853714</v>
+        <v>0.22679646532008935</v>
       </c>
     </row>
     <row r="7">
@@ -4202,28 +4205,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7754083679345132</v>
+        <v>0.8123797236617343</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7754676587013409</v>
+        <v>0.8245437606530425</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.9228130366022317</v>
+        <v>0.9478573357591474</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.2389492694620833</v>
+        <v>0.28141246318984514</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.4537013875870173</v>
+        <v>4.699426841256648</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.0529304786169748</v>
+        <v>0.042881666391686724</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.07617842922471621</v>
+        <v>0.07979720695452304</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.20778982299493517</v>
+        <v>0.24681625185853145</v>
       </c>
     </row>
     <row r="12">
@@ -4231,28 +4234,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7647799621106246</v>
+        <v>0.801422375832904</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7663504639519498</v>
+        <v>0.8228419040806696</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.9153529056400785</v>
+        <v>0.9396879024922683</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.22968725598395087</v>
+        <v>0.2790487353073835</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.279914340571808</v>
+        <v>4.644675705113436</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.055626208127946435</v>
+        <v>0.04391843085862838</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.075662577051443</v>
+        <v>0.07799549274135936</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.16281070230298894</v>
+        <v>0.22679646532008935</v>
       </c>
     </row>
     <row r="13">
@@ -4260,28 +4263,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7914603506391933</v>
+        <v>0.7931425900577571</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7934718317288242</v>
+        <v>0.8164270811702359</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9232798605916676</v>
+        <v>0.9348696225675817</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.25885772136506047</v>
+        <v>0.2704025805310993</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.8419545303233344</v>
+        <v>4.447426594155468</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.04919251970667307</v>
+        <v>0.0458097998486186</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.07156352151902731</v>
+        <v>0.0766217320488443</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.24039796426350626</v>
+        <v>0.22409389362922072</v>
       </c>
     </row>
     <row r="14">
@@ -4289,28 +4292,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.8069063228876371</v>
+        <v>0.8038198773250884</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.8119560625106333</v>
+        <v>0.8181152222852373</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9358319137482145</v>
+        <v>0.939184099446577</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.2818861836106538</v>
+        <v>0.272638499875493</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>4.317906088073415</v>
+        <v>4.497986211733622</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.04623721887560089</v>
+        <v>0.04449399982858395</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.07083187882606072</v>
+        <v>0.0764522071292966</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.2532345394535567</v>
+        <v>0.22679646532008935</v>
       </c>
     </row>
     <row r="15">
@@ -4318,28 +4321,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7802029280948852</v>
+        <v>0.7853139264799519</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7941125049500034</v>
+        <v>0.813402077919759</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.9127987310075409</v>
+        <v>0.9331975618819208</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.25960933931614527</v>
+        <v>0.2664640531087895</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.857021548380899</v>
+        <v>4.359116483462126</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.052333971124085256</v>
+        <v>0.04809815105667645</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.072179084862555</v>
+        <v>0.07602943813765199</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.2131949663766724</v>
+        <v>0.22679646532008935</v>
       </c>
     </row>
     <row r="16">
@@ -4347,28 +4350,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7844591687462353</v>
+        <v>0.7925689151983412</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7947419263398849</v>
+        <v>0.8173684953806718</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.9155767708291543</v>
+        <v>0.9402164888531653</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.2603508293198425</v>
+        <v>0.2716460666806892</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.8719155459672248</v>
+        <v>4.475506551207423</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.05135412924736624</v>
+        <v>0.04646907062946069</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.07485380359936096</v>
+        <v>0.07695973138242883</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.21103337718040185</v>
+        <v>0.22571567072195406</v>
       </c>
     </row>
     <row r="17">
@@ -4376,28 +4379,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.8096743894802755</v>
+        <v>0.8158900523093331</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.818317342840703</v>
+        <v>0.843951191592158</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.929116788340975</v>
+        <v>0.9503955565058125</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.29051037472212166</v>
+        <v>0.31067172101599827</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.504102679009217</v>
+        <v>5.40825143237523</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.04520888081773682</v>
+        <v>0.04210903342246504</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.07005935048819452</v>
+        <v>0.06934211155467772</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.2659959385288973</v>
+        <v>0.2812288105912777</v>
       </c>
     </row>
     <row r="18">
@@ -4405,28 +4408,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8028795436303177</v>
+        <v>0.8197224761454792</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8066859358389464</v>
+        <v>0.8363406128332873</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9285303613283106</v>
+        <v>0.9420832973288205</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.2750246355033318</v>
+        <v>0.2986660617909896</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.172929369313145</v>
+        <v>5.110251402697383</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.04592497068934019</v>
+        <v>0.038946115179961126</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.07730321640583995</v>
+        <v>0.07408339589121296</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.2659959385288973</v>
+        <v>0.2812288105912777</v>
       </c>
     </row>
     <row r="19">
@@ -4434,28 +4437,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7726749805144194</v>
+        <v>0.8173398445957324</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7832070374475081</v>
+        <v>0.8312087885359446</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9294714314493523</v>
+        <v>0.9451229488097584</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.24722993564534504</v>
+        <v>0.2909678372760459</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.6126958561114284</v>
+        <v>4.924479072851217</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.054725793052241165</v>
+        <v>0.03887096609783864</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.07802615789565932</v>
+        <v>0.07944672163835194</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.20778982299493517</v>
+        <v>0.2812288105912777</v>
       </c>
     </row>
     <row r="20">
@@ -4463,28 +4466,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7851537038668194</v>
+        <v>0.7886590734400111</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7924382411107898</v>
+        <v>0.8177793773111262</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9341650923690862</v>
+        <v>0.9419946986765635</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.2576517457738435</v>
+        <v>0.2721914755308811</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.8178431583525323</v>
+        <v>4.487853050021761</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.05152645327457245</v>
+        <v>0.04765515108584468</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.07633306453291865</v>
+        <v>0.07876330149874053</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.20778982299493517</v>
+        <v>0.2066186008502907</v>
       </c>
     </row>
     <row r="21">
@@ -4492,28 +4495,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7618536238187498</v>
+        <v>0.8035801200584068</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7687452529253308</v>
+        <v>0.8295603702059487</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.919908393694774</v>
+        <v>0.9496883483665616</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.232070712861979</v>
+        <v>0.28855920513685174</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.3242355568904807</v>
+        <v>4.867180075480916</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.05699694634059519</v>
+        <v>0.04395273790281654</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.0789368787300012</v>
+        <v>0.07656912127173586</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.17530821584727013</v>
+        <v>0.20941160008766851</v>
       </c>
     </row>
     <row r="22">
@@ -4521,33 +4524,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7662335053617233</v>
+        <v>0.7818337965459347</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.773882454207799</v>
+        <v>0.8097313642437479</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9227686230833674</v>
+        <v>0.9368622422625785</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.2373016920410991</v>
+        <v>0.2617986249372798</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.422478567492444</v>
+        <v>4.2557269674286875</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.055902038075532554</v>
+        <v>0.04874896504685621</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.08011173500394236</v>
+        <v>0.08318534033575245</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.18759843215906538</v>
+        <v>0.20236337900022233</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7839619396996446</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.8118053893864302</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.9379208717582334</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.26441960297050754</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>4.3136484447652705</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.04833245262496397</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.08437893403178368</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.20236337900022233</v>
       </c>
     </row>
     <row r="24">
@@ -4556,458 +4583,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>40.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6426771918019216</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.7004067860707225</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6978284433730314</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5600319886998211</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.25</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.255755978254962</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>40.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.7316473106366816</v>
+        <v>0.5067435892901866</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.7757116565069998</v>
+        <v>0.5585423557598921</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.7798933490657208</v>
+        <v>0.5288130937377777</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.6557233245569889</v>
+        <v>0.4864787154990781</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.775</v>
+        <v>0.925</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.4048907248316322</v>
+        <v>0.2667467828369185</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>40.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.4536082257086275</v>
+        <v>0.5405116838323972</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.5385409677278583</v>
+        <v>0.5792885289722292</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.526149912393761</v>
+        <v>0.5727749448981378</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.3626035803210485</v>
+        <v>0.442129953877769</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0753651735156093</v>
+        <v>1.255755978254962</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>40.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.2744185957102128</v>
+        <v>0.6360276830197512</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.3513078817638356</v>
+        <v>0.6551748549492541</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.310893356203068</v>
+        <v>0.6562923531372518</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.15376010724415665</v>
+        <v>0.5401566318247311</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.75</v>
+        <v>3.775</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.255755978254962</v>
+        <v>1.4048907248316322</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>40.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.6099165305145001</v>
+        <v>0.6542105014000947</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5324299323080053</v>
+        <v>0.6355504428704416</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5370443647504151</v>
+        <v>0.6382837988406069</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.48358720800300864</v>
+        <v>0.6247237458586036</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>1.225</v>
+        <v>0.375</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.7318657495195677</v>
+        <v>0.4902903378454601</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>40.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.5989232826823694</v>
+        <v>0.7135740455374552</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5264012422407707</v>
+        <v>0.6897428662296744</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.528969771332402</v>
+        <v>0.7012479507358911</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.4554175681753866</v>
+        <v>0.6105460653004048</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>1.25</v>
+        <v>1.225</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.9047847983972175</v>
+        <v>1.7318657495195677</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>40.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.30857906000361934</v>
+        <v>0.6759332552234725</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.2811888308900585</v>
+        <v>0.6442609171656593</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.24829670274001744</v>
+        <v>0.6474951661912832</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.16452620029812734</v>
+        <v>0.5498357522454711</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.675</v>
+        <v>1.25</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.5087352489028854</v>
+        <v>1.9047847983972175</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>40.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.426521379891443</v>
+        <v>0.24327816754571868</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.4070957503988916</v>
+        <v>0.3017371475843904</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.3752091999910465</v>
+        <v>0.2656761028880647</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.27151698849430866</v>
+        <v>0.20876262162125628</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.525</v>
+        <v>0.85</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.7244471429179697</v>
+        <v>0.3616202853397895</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>40.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.6607443904936203</v>
+        <v>0.3700768361956974</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.6330807672165243</v>
+        <v>0.40710946546344057</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.6004628857981252</v>
+        <v>0.3888487506105579</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.5533516412216813</v>
+        <v>0.22938734885362708</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>2.575</v>
+        <v>2.675</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.6312257464549276</v>
+        <v>1.5087352489028854</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>40.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5465206454169</v>
+        <v>0.447786041211996</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5483461613674836</v>
+        <v>0.47467591437639906</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.5060720973193461</v>
+        <v>0.4498874329070551</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.43208159666632684</v>
+        <v>0.29400683080987644</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.375</v>
+        <v>2.525</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.4621287606844044</v>
+        <v>1.7244471429179697</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>40.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.7487480927612814</v>
+        <v>0.683196926256461</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.7563329423846196</v>
+        <v>0.6394739251596934</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.74424023785763</v>
+        <v>0.6155461288529404</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.6716023976687006</v>
+        <v>0.5799023706685987</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.2</v>
+        <v>2.575</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.4884168150705015</v>
+        <v>1.6312257464549276</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>40.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.719403785771017</v>
+        <v>0.5338321142462299</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.7138024267177462</v>
+        <v>0.49581620718899017</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.6971131930211509</v>
+        <v>0.45236855944550874</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.6411756722417739</v>
+        <v>0.41647776080988236</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.375</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.4621287606844044</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>40.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.7403346378087726</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.7306908034579893</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.7191279296524955</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.660415332146301</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.2</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.4884168150705015</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>40.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.7257068817067897</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.7076867746666358</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.6931888404049454</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.6481096413434545</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.875</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.399404635312222</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.075</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.05</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.375</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.425</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.075</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.075</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.05</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.2</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.3</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.375</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.025</v>
+        <v>0.925</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.025</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.375</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.475</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.05</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5015,25 +5021,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
+        <v>0.075</v>
+      </c>
+      <c r="C46" t="n" s="110">
         <v>0.05</v>
       </c>
-      <c r="C46" t="n" s="110">
-        <v>0.0</v>
-      </c>
       <c r="D46" t="n" s="111">
-        <v>0.025</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.225</v>
+        <v>0.425</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.35</v>
+        <v>0.075</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5041,25 +5047,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.625</v>
+        <v>0.075</v>
       </c>
       <c r="C47" t="n" s="110">
+        <v>0.0</v>
+      </c>
+      <c r="D47" t="n" s="111">
         <v>0.05</v>
       </c>
-      <c r="D47" t="n" s="111">
-        <v>0.0</v>
-      </c>
       <c r="E47" t="n" s="112">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.025</v>
+        <v>0.375</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5067,25 +5073,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.625</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.1</v>
+        <v>0.375</v>
       </c>
       <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.075</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.075</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5093,25 +5099,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
+        <v>0.625</v>
+      </c>
+      <c r="C49" t="n" s="110">
+        <v>0.05</v>
+      </c>
+      <c r="D49" t="n" s="111">
+        <v>0.0</v>
+      </c>
+      <c r="E49" t="n" s="112">
         <v>0.15</v>
       </c>
-      <c r="C49" t="n" s="110">
-        <v>0.125</v>
-      </c>
-      <c r="D49" t="n" s="111">
-        <v>0.05</v>
-      </c>
-      <c r="E49" t="n" s="112">
-        <v>0.25</v>
-      </c>
       <c r="F49" t="n" s="113">
-        <v>0.425</v>
+        <v>0.15</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.0</v>
+        <v>0.025</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5119,25 +5125,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.15</v>
+        <v>0.625</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="E50" t="n" s="112">
+        <v>0.075</v>
+      </c>
+      <c r="F50" t="n" s="113">
+        <v>0.075</v>
+      </c>
+      <c r="G50" t="n" s="114">
         <v>0.125</v>
-      </c>
-      <c r="F50" t="n" s="113">
-        <v>0.125</v>
-      </c>
-      <c r="G50" t="n" s="114">
-        <v>0.2</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5145,22 +5151,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.225</v>
+        <v>0.15</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.075</v>
+        <v>0.85</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.025</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.425</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5171,22 +5177,22 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.225</v>
+        <v>0.15</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.05</v>
+        <v>0.125</v>
       </c>
       <c r="D52" t="n" s="111">
         <v>0.05</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.475</v>
+        <v>0.25</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.2</v>
+        <v>0.425</v>
       </c>
       <c r="G52" t="n" s="114">
         <v>0.0</v>
@@ -5197,25 +5203,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
+        <v>0.15</v>
+      </c>
+      <c r="C53" t="n" s="110">
+        <v>0.15</v>
+      </c>
+      <c r="D53" t="n" s="111">
+        <v>0.25</v>
+      </c>
+      <c r="E53" t="n" s="112">
+        <v>0.125</v>
+      </c>
+      <c r="F53" t="n" s="113">
+        <v>0.125</v>
+      </c>
+      <c r="G53" t="n" s="114">
         <v>0.2</v>
-      </c>
-      <c r="C53" t="n" s="110">
-        <v>0.125</v>
-      </c>
-      <c r="D53" t="n" s="111">
-        <v>0.225</v>
-      </c>
-      <c r="E53" t="n" s="112">
-        <v>0.175</v>
-      </c>
-      <c r="F53" t="n" s="113">
-        <v>0.275</v>
-      </c>
-      <c r="G53" t="n" s="114">
-        <v>0.0</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5223,27 +5229,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
+        <v>27</v>
+      </c>
+      <c r="B54" t="n" s="109">
+        <v>0.225</v>
+      </c>
+      <c r="C54" t="n" s="110">
+        <v>0.075</v>
+      </c>
+      <c r="D54" t="n" s="111">
+        <v>0.025</v>
+      </c>
+      <c r="E54" t="n" s="112">
+        <v>0.25</v>
+      </c>
+      <c r="F54" t="n" s="113">
+        <v>0.425</v>
+      </c>
+      <c r="G54" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.225</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.05</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.05</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.475</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.2</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
         <v>29</v>
       </c>
-      <c r="B54" t="n" s="109">
+      <c r="B56" t="n" s="109">
+        <v>0.2</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.125</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.225</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.175</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.275</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
         <v>0.25</v>
       </c>
-      <c r="C54" t="n" s="110">
+      <c r="C57" t="n" s="110">
         <v>0.1</v>
       </c>
-      <c r="D54" t="n" s="111">
+      <c r="D57" t="n" s="111">
         <v>0.35</v>
       </c>
-      <c r="E54" t="n" s="112">
+      <c r="E57" t="n" s="112">
         <v>0.125</v>
       </c>
-      <c r="F54" t="n" s="113">
+      <c r="F57" t="n" s="113">
         <v>0.175</v>
       </c>
-      <c r="G54" t="n" s="114">
-        <v>0.0</v>
-      </c>
-      <c r="H54" t="n" s="115">
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5274,7 +5358,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5323,31 +5407,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8681022720531528</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8736784322359734</v>
+        <v>0.9669951880235068</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.9111990436596824</v>
+        <v>0.9612313344893143</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.633575631160241</v>
+        <v>0.9071167523213223</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.916304536910423</v>
+        <v>29.298612236065036</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.03646318409627609</v>
+        <v>0.010711724424695179</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.53125</v>
+        <v>0.95</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>1.0609434299426437</v>
+        <v>1.3430203660792728</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6797646339223461</v>
+        <v>0.9247917190306482</v>
       </c>
     </row>
     <row r="7">
@@ -5394,118 +5478,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.805298013245033</v>
+        <v>0.9660483024151207</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8213406015992358</v>
+        <v>0.9683067757376085</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.803630075868565</v>
+        <v>0.9385607591150935</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6051198904300853</v>
+        <v>0.9385607591150935</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.5972426245208</v>
+        <v>30.552485531951476</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.05613941189832835</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.028929233994913775</v>
-      </c>
+        <v>0.010349034378802443</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.647487550623787</v>
+        <v>0.9385607591150936</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.82053354890865</v>
+        <v>0.5858230814294083</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8304434232793356</v>
+        <v>0.9235724483631542</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.8384820296271795</v>
+        <v>0.8579977788182256</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6201443254778097</v>
+        <v>0.8579977788182254</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.897736433116644</v>
+        <v>12.084286734077448</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.052673725218470975</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.03724709911206639</v>
-      </c>
+        <v>0.03568727849933172</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.7120417172209051</v>
+        <v>0.8579977788182254</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.7974705779026876</v>
+        <v>0.6529850746268655</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.7950922980358073</v>
+        <v>0.9609265354657552</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7994437428104775</v>
+        <v>0.9247917190306478</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.5639690812146889</v>
+        <v>0.924791719030648</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>3.8802460347476244</v>
+        <v>24.592816299245264</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.057832235758017596</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.07296690743202446</v>
-      </c>
+        <v>0.025022350655393776</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.417854845193782</v>
+        <v>0.9247917190306482</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8953060664287676</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.897623856229369</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.8769125370746228</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.7450692275183798</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>8.76790063748107</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.0277964893915476</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.013835879940491536</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.7120417172209051</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5514,283 +5568,214 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>40.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9248324800175455</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9577224408942044</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9263230544321854</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9037648142863147</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.375</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.4902903378454601</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>40.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.88410789199004</v>
+        <v>0.986095361510415</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8766375620474115</v>
+        <v>0.9854489269238778</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.8632413014672505</v>
+        <v>0.982318318537349</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.782993546157573</v>
+        <v>0.9581552027757609</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.25</v>
+        <v>1.225</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.255755978254962</v>
+        <v>1.7318657495195677</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>40.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.877883378630082</v>
+        <v>0.98060415453297</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8634052422331215</v>
+        <v>0.9624611818908335</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.8347915729229858</v>
+        <v>0.9401106839312707</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7523086209150385</v>
+        <v>0.9329297684125605</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.775</v>
+        <v>1.25</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.4048907248316322</v>
+        <v>1.9047847983972175</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>40.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.9003787668193334</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.9128799010388816</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.8844910037269055</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.8298019436785972</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.35</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0753651735156093</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>40.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.7421694821195303</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.7533813876709472</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.6690231821343664</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.5542322182285485</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.75</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.255755978254962</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.625</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.375</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.625</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.05</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.15</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.15</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.025</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
+        <v>0.625</v>
+      </c>
+      <c r="C27" t="n" s="225">
+        <v>0.1</v>
+      </c>
+      <c r="D27" t="n" s="226">
         <v>0.075</v>
       </c>
-      <c r="C27" t="n" s="225">
-        <v>0.05</v>
-      </c>
-      <c r="D27" t="n" s="226">
-        <v>0.0</v>
-      </c>
       <c r="E27" t="n" s="227">
-        <v>0.375</v>
+        <v>0.075</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.425</v>
+        <v>0.125</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.075</v>
-      </c>
-      <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.075</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.05</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.2</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.3</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.375</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.05</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.025</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.025</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.375</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.475</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.05</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.05</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.025</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.35</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.225</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.35</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5820,8 +5805,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="232">
-        <v>45</v>
+      <c r="A1" t="s" s="231">
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5835,66 +5820,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="246">
+      <c r="A4" t="s" s="245">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="260">
+      <c r="A5" t="s" s="259">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="260">
+      <c r="B5" t="s" s="259">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="260">
+      <c r="C5" t="s" s="259">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="260">
+      <c r="D5" t="s" s="259">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="260">
+      <c r="E5" t="s" s="259">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="260">
+      <c r="F5" t="s" s="259">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="260">
+      <c r="G5" t="s" s="259">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="260">
+      <c r="H5" t="s" s="259">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="260">
+      <c r="I5" t="s" s="259">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="261">
-        <v>0.8762349066959383</v>
-      </c>
-      <c r="B6" t="n" s="262">
-        <v>0.8806204478253028</v>
-      </c>
-      <c r="C6" t="n" s="263">
-        <v>0.7867040684408249</v>
-      </c>
-      <c r="D6" t="n" s="264">
-        <v>0.7867040684408249</v>
-      </c>
-      <c r="E6" t="n" s="265">
-        <v>7.376643920866984</v>
-      </c>
-      <c r="F6" t="n" s="266">
-        <v>0.03824686511838736</v>
-      </c>
-      <c r="G6" t="n" s="267">
-        <v>2.6</v>
-      </c>
-      <c r="H6" t="n" s="268">
-        <v>1.528364300779574</v>
-      </c>
-      <c r="I6" t="n" s="269">
-        <v>0.7867040684408249</v>
+      <c r="A6" t="n" s="260">
+        <v>0.7711854595971289</v>
+      </c>
+      <c r="B6" t="n" s="261">
+        <v>0.885907594248598</v>
+      </c>
+      <c r="C6" t="n" s="262">
+        <v>0.8533246621441678</v>
+      </c>
+      <c r="D6" t="n" s="263">
+        <v>0.7213145659769263</v>
+      </c>
+      <c r="E6" t="n" s="264">
+        <v>7.764825260840924</v>
+      </c>
+      <c r="F6" t="n" s="265">
+        <v>0.029639596780605765</v>
+      </c>
+      <c r="G6" t="n" s="266">
+        <v>2.0166666666666666</v>
+      </c>
+      <c r="H6" t="n" s="267">
+        <v>1.109271982195679</v>
+      </c>
+      <c r="I6" t="n" s="268">
+        <v>0.7543008692700476</v>
       </c>
     </row>
     <row r="7">
@@ -5908,86 +5893,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="273">
+      <c r="A9" t="s" s="272">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="287">
+      <c r="B10" t="s" s="286">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="287">
+      <c r="C10" t="s" s="286">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="287">
+      <c r="D10" t="s" s="286">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="287">
+      <c r="E10" t="s" s="286">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="287">
+      <c r="F10" t="s" s="286">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="287">
+      <c r="G10" t="s" s="286">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="287">
+      <c r="H10" t="s" s="286">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="287">
+      <c r="I10" t="s" s="286">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="283">
+      <c r="A11" t="s" s="282">
         <v>24</v>
       </c>
-      <c r="B11" t="n" s="288">
+      <c r="B11" t="n" s="287">
+        <v>0.8762349066959383</v>
+      </c>
+      <c r="C11" t="n" s="288">
+        <v>0.8806204478253028</v>
+      </c>
+      <c r="D11" t="n" s="289">
         <v>0.7867040684408249</v>
       </c>
-      <c r="C11" t="n" s="289">
+      <c r="E11" t="n" s="290">
         <v>0.7867040684408249</v>
       </c>
-      <c r="D11" t="n" s="290">
-        <v>0.6189032913013459</v>
-      </c>
-      <c r="E11" t="n" s="291">
+      <c r="F11" t="n" s="291">
+        <v>7.376643920866984</v>
+      </c>
+      <c r="G11" t="n" s="292">
+        <v>0.03824686511838736</v>
+      </c>
+      <c r="H11" s="293"/>
+      <c r="I11" t="n" s="294">
         <v>0.7867040684408249</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.7867040684408249</v>
-      </c>
-      <c r="I11" t="n" s="295">
-        <v>0.7867040684408249</v>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="283">
+      <c r="A12" t="s" s="282">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="288">
-        <v>0.6189032913013459</v>
-      </c>
-      <c r="C12" t="n" s="289">
-        <v>0.7867040684408249</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.6189032913013459</v>
-      </c>
-      <c r="I12" t="n" s="295">
-        <v>0.7867040684408249</v>
+      <c r="B12" t="n" s="287">
+        <v>0.4003303055326177</v>
+      </c>
+      <c r="C12" t="n" s="288">
+        <v>0.767667610742748</v>
+      </c>
+      <c r="D12" t="n" s="289">
+        <v>0.622938760219907</v>
+      </c>
+      <c r="E12" t="n" s="290">
+        <v>0.6229387602199068</v>
+      </c>
+      <c r="F12" t="n" s="291">
+        <v>3.304178178500725</v>
+      </c>
+      <c r="G12" t="n" s="292">
+        <v>0.061553985899292715</v>
+      </c>
+      <c r="H12" s="293"/>
+      <c r="I12" t="n" s="294">
+        <v>0.6229387602199068</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="282">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="287">
+        <v>0.5096249255804723</v>
+      </c>
+      <c r="C13" t="n" s="288">
+        <v>0.8599447021694824</v>
+      </c>
+      <c r="D13" t="n" s="289">
+        <v>0.7543008692700476</v>
+      </c>
+      <c r="E13" t="n" s="290">
+        <v>0.7543008692700477</v>
+      </c>
+      <c r="F13" t="n" s="291">
+        <v>6.140036938910452</v>
+      </c>
+      <c r="G13" t="n" s="292">
+        <v>0.049112732747691755</v>
+      </c>
+      <c r="H13" s="293"/>
+      <c r="I13" t="n" s="294">
+        <v>0.7543008692700476</v>
       </c>
     </row>
     <row r="14">
@@ -5996,174 +6011,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="298">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="312">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="312">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="312">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="312">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="312">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="312">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="312">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
+    <row r="18">
+      <c r="A18" t="s" s="308">
         <v>24</v>
       </c>
-      <c r="B17" t="n" s="314">
+      <c r="B18" t="n" s="313">
         <v>40.0</v>
       </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9373958913415047</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9451730181402834</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.8383338713609784</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.7867040684408249</v>
-      </c>
-      <c r="G17" t="n" s="319">
+      <c r="C18" t="n" s="314">
+        <v>0.7734458881355565</v>
+      </c>
+      <c r="D18" t="n" s="315">
+        <v>0.8781800522652057</v>
+      </c>
+      <c r="E18" t="n" s="316">
+        <v>0.7792077086001391</v>
+      </c>
+      <c r="F18" t="n" s="317">
+        <v>0.723736243345738</v>
+      </c>
+      <c r="G18" t="n" s="318">
+        <v>0.85</v>
+      </c>
+      <c r="H18" t="n" s="319">
+        <v>0.3616202853397895</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="308">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="313">
+        <v>40.0</v>
+      </c>
+      <c r="C19" t="n" s="314">
+        <v>0.9430014694302803</v>
+      </c>
+      <c r="D19" t="n" s="315">
+        <v>0.9386768676256032</v>
+      </c>
+      <c r="E19" t="n" s="316">
+        <v>0.9093773027828131</v>
+      </c>
+      <c r="F19" t="n" s="317">
+        <v>0.8270522707765108</v>
+      </c>
+      <c r="G19" t="n" s="318">
         <v>2.675</v>
       </c>
-      <c r="H17" t="n" s="320">
+      <c r="H19" t="n" s="319">
         <v>1.5087352489028854</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="309">
+    <row r="20">
+      <c r="A20" t="s" s="308">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="313">
+        <v>40.0</v>
+      </c>
+      <c r="C20" t="n" s="314">
+        <v>0.9425529067696146</v>
+      </c>
+      <c r="D20" t="n" s="315">
+        <v>0.890150172058076</v>
+      </c>
+      <c r="E20" t="n" s="316">
+        <v>0.8120283206426274</v>
+      </c>
+      <c r="F20" t="n" s="317">
+        <v>0.7857509741545289</v>
+      </c>
+      <c r="G20" t="n" s="318">
+        <v>2.525</v>
+      </c>
+      <c r="H20" t="n" s="319">
+        <v>1.7244471429179697</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="323">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="337">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="337">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="337">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="337">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="337">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="337">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="337">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="333">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n" s="338">
+        <v>0.15</v>
+      </c>
+      <c r="C25" t="n" s="339">
+        <v>0.85</v>
+      </c>
+      <c r="D25" t="n" s="340">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="333">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="314">
-        <v>40.0</v>
-      </c>
-      <c r="C18" t="n" s="315">
-        <v>0.9524480845126201</v>
-      </c>
-      <c r="D18" t="n" s="316">
-        <v>0.9451730181402834</v>
-      </c>
-      <c r="E18" t="n" s="317">
-        <v>0.8383338713609784</v>
-      </c>
-      <c r="F18" t="n" s="318">
-        <v>0.7867040684408249</v>
-      </c>
-      <c r="G18" t="n" s="319">
-        <v>2.525</v>
-      </c>
-      <c r="H18" t="n" s="320">
-        <v>1.7244471429179697</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="338">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s" s="338">
-        <v>39</v>
-      </c>
-      <c r="E22" t="s" s="338">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s" s="338">
-        <v>41</v>
-      </c>
-      <c r="G22" t="s" s="338">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s" s="338">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
-        <v>24</v>
-      </c>
-      <c r="B23" t="n" s="339">
+      <c r="B26" t="n" s="338">
         <v>0.15</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C26" t="n" s="339">
         <v>0.125</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="340">
         <v>0.05</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="341">
         <v>0.25</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="342">
         <v>0.425</v>
       </c>
-      <c r="G23" t="n" s="344">
-        <v>0.0</v>
-      </c>
-      <c r="H23" t="n" s="345">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+      <c r="G26" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="H26" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="333">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="338">
         <v>0.15</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="339">
         <v>0.15</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="340">
         <v>0.25</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="341">
         <v>0.125</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="342">
         <v>0.125</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="343">
         <v>0.2</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="344">
         <v>0.0</v>
       </c>
     </row>
@@ -6193,8 +6265,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="347">
-        <v>46</v>
+      <c r="A1" t="s" s="346">
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6208,66 +6280,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="361">
+      <c r="A4" t="s" s="360">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="375">
+      <c r="A5" t="s" s="374">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="375">
+      <c r="B5" t="s" s="374">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="375">
+      <c r="C5" t="s" s="374">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="375">
+      <c r="D5" t="s" s="374">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="375">
+      <c r="E5" t="s" s="374">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="375">
+      <c r="F5" t="s" s="374">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="375">
+      <c r="G5" t="s" s="374">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="375">
+      <c r="H5" t="s" s="374">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="375">
+      <c r="I5" t="s" s="374">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="376">
-        <v>0.8880539663564171</v>
-      </c>
-      <c r="B6" t="n" s="377">
-        <v>0.8889922355512736</v>
-      </c>
-      <c r="C6" t="n" s="378">
-        <v>0.8001674371667283</v>
-      </c>
-      <c r="D6" t="n" s="379">
-        <v>0.8001674371667282</v>
-      </c>
-      <c r="E6" t="n" s="380">
-        <v>8.008378873010198</v>
-      </c>
-      <c r="F6" t="n" s="381">
-        <v>0.03521457279503988</v>
-      </c>
-      <c r="G6" t="n" s="382">
-        <v>2.0375</v>
-      </c>
-      <c r="H6" t="n" s="383">
-        <v>1.3699499335788956</v>
-      </c>
-      <c r="I6" t="n" s="384">
-        <v>0.8001674371667282</v>
+      <c r="A6" t="n" s="375">
+        <v>0.8028134254689041</v>
+      </c>
+      <c r="B6" t="n" s="376">
+        <v>0.9226167666636431</v>
+      </c>
+      <c r="C6" t="n" s="377">
+        <v>0.8971615710531516</v>
+      </c>
+      <c r="D6" t="n" s="378">
+        <v>0.7989639405810122</v>
+      </c>
+      <c r="E6" t="n" s="379">
+        <v>11.922696001256032</v>
+      </c>
+      <c r="F6" t="n" s="380">
+        <v>0.017690275416730062</v>
+      </c>
+      <c r="G6" t="n" s="381">
+        <v>2.65</v>
+      </c>
+      <c r="H6" t="n" s="382">
+        <v>0.9304901750217279</v>
+      </c>
+      <c r="I6" t="n" s="383">
+        <v>0.77487539040124</v>
       </c>
     </row>
     <row r="7">
@@ -6281,86 +6353,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="388">
+      <c r="A9" t="s" s="387">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="402">
+      <c r="B10" t="s" s="401">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="402">
+      <c r="C10" t="s" s="401">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="402">
+      <c r="D10" t="s" s="401">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="402">
+      <c r="E10" t="s" s="401">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="402">
+      <c r="F10" t="s" s="401">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="402">
+      <c r="G10" t="s" s="401">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="402">
+      <c r="H10" t="s" s="401">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="402">
+      <c r="I10" t="s" s="401">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="398">
-        <v>28</v>
-      </c>
-      <c r="B11" t="n" s="403">
-        <v>0.8001674371667283</v>
-      </c>
-      <c r="C11" t="n" s="404">
-        <v>0.8001674371667283</v>
-      </c>
-      <c r="D11" t="n" s="405">
-        <v>0.6402679275019703</v>
-      </c>
-      <c r="E11" t="n" s="406">
-        <v>0.8001674371667283</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8001674371667283</v>
-      </c>
-      <c r="I11" t="n" s="410">
-        <v>0.8001674371667283</v>
+      <c r="A11" t="s" s="397">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n" s="402">
+        <v>0.930591755961</v>
+      </c>
+      <c r="C11" t="n" s="403">
+        <v>0.9337191363324697</v>
+      </c>
+      <c r="D11" t="n" s="404">
+        <v>0.8756784147104475</v>
+      </c>
+      <c r="E11" t="n" s="405">
+        <v>0.8756784147104475</v>
+      </c>
+      <c r="F11" t="n" s="406">
+        <v>14.087310947184907</v>
+      </c>
+      <c r="G11" t="n" s="407">
+        <v>0.02137679287385018</v>
+      </c>
+      <c r="H11" s="408"/>
+      <c r="I11" t="n" s="409">
+        <v>0.8756784147104475</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="398">
-        <v>29</v>
-      </c>
-      <c r="B12" t="n" s="403">
-        <v>0.6402679275019703</v>
-      </c>
-      <c r="C12" t="n" s="404">
-        <v>0.8001674371667283</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6402679275019703</v>
-      </c>
-      <c r="I12" t="n" s="410">
-        <v>0.8001674371667283</v>
+      <c r="A12" t="s" s="397">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n" s="402">
+        <v>0.4423828124999998</v>
+      </c>
+      <c r="C12" t="n" s="403">
+        <v>0.8731603295553798</v>
+      </c>
+      <c r="D12" t="n" s="404">
+        <v>0.77487539040124</v>
+      </c>
+      <c r="E12" t="n" s="405">
+        <v>0.77487539040124</v>
+      </c>
+      <c r="F12" t="n" s="406">
+        <v>6.88396876540776</v>
+      </c>
+      <c r="G12" t="n" s="407">
+        <v>0.042608856344895314</v>
+      </c>
+      <c r="H12" s="408"/>
+      <c r="I12" t="n" s="409">
+        <v>0.77487539040124</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="397">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="402">
+        <v>0.4655326768128918</v>
+      </c>
+      <c r="C13" t="n" s="403">
+        <v>0.854746342945703</v>
+      </c>
+      <c r="D13" t="n" s="404">
+        <v>0.7463380166313491</v>
+      </c>
+      <c r="E13" t="n" s="405">
+        <v>0.7463380166313489</v>
+      </c>
+      <c r="F13" t="n" s="406">
+        <v>5.884508247707609</v>
+      </c>
+      <c r="G13" t="n" s="407">
+        <v>0.047988484610390035</v>
+      </c>
+      <c r="H13" s="408"/>
+      <c r="I13" t="n" s="409">
+        <v>0.7463380166313489</v>
       </c>
     </row>
     <row r="14">
@@ -6369,165 +6471,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="413">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="427">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="427">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="427">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="427">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="427">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="427">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="427">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
+    <row r="18">
+      <c r="A18" t="s" s="423">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n" s="428">
         <v>40.0</v>
       </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9519234140381514</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.948727420592113</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8486563982757387</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8001674371667283</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.2</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.4884168150705015</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="424">
-        <v>29</v>
-      </c>
-      <c r="B18" t="n" s="429">
+      <c r="C18" t="n" s="429">
+        <v>0.8212805534968505</v>
+      </c>
+      <c r="D18" t="n" s="430">
+        <v>0.9030991533488582</v>
+      </c>
+      <c r="E18" t="n" s="431">
+        <v>0.8098030713952782</v>
+      </c>
+      <c r="F18" t="n" s="432">
+        <v>0.7861531677054262</v>
+      </c>
+      <c r="G18" t="n" s="433">
+        <v>0.925</v>
+      </c>
+      <c r="H18" t="n" s="434">
+        <v>0.2667467828369185</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="423">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="428">
         <v>40.0</v>
       </c>
-      <c r="C18" t="n" s="430">
-        <v>0.9454313767861023</v>
-      </c>
-      <c r="D18" t="n" s="431">
-        <v>0.948727420592113</v>
-      </c>
-      <c r="E18" t="n" s="432">
-        <v>0.8486563982757386</v>
-      </c>
-      <c r="F18" t="n" s="433">
-        <v>0.8001674371667282</v>
-      </c>
-      <c r="G18" t="n" s="434">
-        <v>1.875</v>
-      </c>
-      <c r="H18" t="n" s="435">
-        <v>1.399404635312222</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+      <c r="C19" t="n" s="429">
+        <v>0.9618843193049789</v>
+      </c>
+      <c r="D19" t="n" s="430">
+        <v>0.9392068170851842</v>
+      </c>
+      <c r="E19" t="n" s="431">
+        <v>0.9077408583988499</v>
+      </c>
+      <c r="F19" t="n" s="432">
+        <v>0.8820851359091536</v>
+      </c>
+      <c r="G19" t="n" s="433">
+        <v>3.25</v>
+      </c>
+      <c r="H19" t="n" s="434">
+        <v>1.255755978254962</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="423">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="428">
+        <v>40.0</v>
+      </c>
+      <c r="C20" t="n" s="429">
+        <v>0.9712531879801334</v>
+      </c>
+      <c r="D20" t="n" s="430">
+        <v>0.9494289101529509</v>
+      </c>
+      <c r="E20" t="n" s="431">
+        <v>0.9267486368554706</v>
+      </c>
+      <c r="F20" t="n" s="432">
+        <v>0.8913110478323968</v>
+      </c>
+      <c r="G20" t="n" s="433">
+        <v>3.775</v>
+      </c>
+      <c r="H20" t="n" s="434">
+        <v>1.4048907248316322</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="438">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="452">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="452">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="452">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="452">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="452">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="452">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
+      <c r="H24" t="s" s="452">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="448">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="453">
+        <v>0.075</v>
+      </c>
+      <c r="C25" t="n" s="454">
+        <v>0.925</v>
+      </c>
+      <c r="D25" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="448">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="453">
+        <v>0.075</v>
+      </c>
+      <c r="C26" t="n" s="454">
+        <v>0.05</v>
+      </c>
+      <c r="D26" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="456">
+        <v>0.375</v>
+      </c>
+      <c r="F26" t="n" s="457">
+        <v>0.425</v>
+      </c>
+      <c r="G26" t="n" s="458">
+        <v>0.075</v>
+      </c>
+      <c r="H26" t="n" s="459">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="448">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="453">
+        <v>0.075</v>
+      </c>
+      <c r="C27" t="n" s="454">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="455">
+        <v>0.05</v>
+      </c>
+      <c r="E27" t="n" s="456">
         <v>0.2</v>
       </c>
-      <c r="C23" t="n" s="455">
-        <v>0.125</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.225</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.175</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.275</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.25</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.1</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.35</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.125</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.175</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="F27" t="n" s="457">
+        <v>0.3</v>
+      </c>
+      <c r="G27" t="n" s="458">
+        <v>0.375</v>
+      </c>
+      <c r="H27" t="n" s="459">
         <v>0.0</v>
       </c>
     </row>
@@ -6558,7 +6726,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="461">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6607,31 +6775,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="490">
-        <v>0.9660483024151207</v>
+        <v>0.72643756379721</v>
       </c>
       <c r="B6" t="n" s="491">
-        <v>0.9683067757376085</v>
+        <v>0.7292044165265223</v>
       </c>
       <c r="C6" t="n" s="492">
-        <v>0.9385607591150935</v>
+        <v>0.5738172417418865</v>
       </c>
       <c r="D6" t="n" s="493">
-        <v>0.9385607591150935</v>
+        <v>0.5738172417418865</v>
       </c>
       <c r="E6" t="n" s="494">
-        <v>30.552485531951476</v>
+        <v>2.6928224130285425</v>
       </c>
       <c r="F6" t="n" s="495">
-        <v>0.010349034378802443</v>
+        <v>0.08574287129476871</v>
       </c>
       <c r="G6" t="n" s="496">
-        <v>1.2375</v>
+        <v>2.475</v>
       </c>
       <c r="H6" t="n" s="497">
-        <v>1.790242427359476</v>
+        <v>1.3725794545214347</v>
       </c>
       <c r="I6" t="n" s="498">
-        <v>0.9385607591150936</v>
+        <v>0.5738172417418865</v>
       </c>
     </row>
     <row r="7">
@@ -6678,48 +6846,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="512">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" t="n" s="517">
-        <v>0.9385607591150935</v>
+        <v>0.5738172417418865</v>
       </c>
       <c r="C11" t="n" s="518">
-        <v>0.9385607591150935</v>
+        <v>0.5738172417418865</v>
       </c>
       <c r="D11" t="n" s="519">
-        <v>0.8808962985507005</v>
+        <v>0.3292662269202664</v>
       </c>
       <c r="E11" t="n" s="520">
-        <v>0.9385607591150935</v>
+        <v>0.5738172417418865</v>
       </c>
       <c r="F11" s="521"/>
       <c r="G11" s="522"/>
       <c r="H11" t="n" s="523">
-        <v>0.9385607591150935</v>
+        <v>0.5738172417418865</v>
       </c>
       <c r="I11" t="n" s="524">
-        <v>0.9385607591150935</v>
+        <v>0.5738172417418865</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="512">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B12" t="n" s="517">
-        <v>0.8808962985507005</v>
+        <v>0.3292662269202664</v>
       </c>
       <c r="C12" t="n" s="518">
-        <v>0.9385607591150935</v>
+        <v>0.5738172417418865</v>
       </c>
       <c r="D12" s="519"/>
       <c r="E12" s="520"/>
       <c r="F12" s="521"/>
       <c r="G12" s="522"/>
       <c r="H12" t="n" s="523">
-        <v>0.8808962985507005</v>
+        <v>0.3292662269202664</v>
       </c>
       <c r="I12" t="n" s="524">
-        <v>0.9385607591150935</v>
+        <v>0.5738172417418865</v>
       </c>
     </row>
     <row r="13">
@@ -6734,25 +6902,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="528">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="542">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="542">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="542">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="542">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="542">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="542">
         <v>9</v>
@@ -6763,54 +6931,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="538">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="543">
         <v>40.0</v>
       </c>
       <c r="C17" t="n" s="544">
-        <v>0.9830015091993515</v>
+        <v>0.8998460638636057</v>
       </c>
       <c r="D17" t="n" s="545">
-        <v>0.9845203804683511</v>
+        <v>0.8870787004944619</v>
       </c>
       <c r="E17" t="n" s="546">
-        <v>0.9537969012493682</v>
+        <v>0.6719685515938051</v>
       </c>
       <c r="F17" t="n" s="547">
-        <v>0.9385607591150936</v>
+        <v>0.5738172417418866</v>
       </c>
       <c r="G17" t="n" s="548">
-        <v>1.225</v>
+        <v>2.575</v>
       </c>
       <c r="H17" t="n" s="549">
-        <v>1.7318657495195677</v>
+        <v>1.6312257464549276</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="538">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="543">
         <v>40.0</v>
       </c>
       <c r="C18" t="n" s="544">
-        <v>0.9859687093213072</v>
+        <v>0.8735939516192397</v>
       </c>
       <c r="D18" t="n" s="545">
-        <v>0.984520380468351</v>
+        <v>0.8870787004944619</v>
       </c>
       <c r="E18" t="n" s="546">
-        <v>0.9537969012493681</v>
+        <v>0.6719685515938054</v>
       </c>
       <c r="F18" t="n" s="547">
-        <v>0.9385607591150936</v>
+        <v>0.5738172417418866</v>
       </c>
       <c r="G18" t="n" s="548">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="H18" t="n" s="549">
-        <v>1.9047847983972175</v>
+        <v>1.4621287606844044</v>
       </c>
     </row>
     <row r="19">
@@ -6825,16 +6993,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="553">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="567">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="567">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="567">
         <v>40</v>
@@ -6846,27 +7014,27 @@
         <v>42</v>
       </c>
       <c r="G22" t="s" s="567">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="563">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B23" t="n" s="568">
-        <v>0.625</v>
+        <v>0.225</v>
       </c>
       <c r="C23" t="n" s="569">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="D23" t="n" s="570">
-        <v>0.15</v>
+        <v>0.025</v>
       </c>
       <c r="E23" t="n" s="571">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="F23" t="n" s="572">
-        <v>0.025</v>
+        <v>0.425</v>
       </c>
       <c r="G23" t="n" s="573">
         <v>0.0</v>
@@ -6874,22 +7042,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="563">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B24" t="n" s="568">
-        <v>0.625</v>
+        <v>0.225</v>
       </c>
       <c r="C24" t="n" s="569">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D24" t="n" s="570">
-        <v>0.075</v>
+        <v>0.05</v>
       </c>
       <c r="E24" t="n" s="571">
-        <v>0.075</v>
+        <v>0.475</v>
       </c>
       <c r="F24" t="n" s="572">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="G24" t="n" s="573">
         <v>0.0</v>
@@ -6922,7 +7090,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="575">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6971,31 +7139,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="604">
-        <v>0.72643756379721</v>
+        <v>0.8880539663564171</v>
       </c>
       <c r="B6" t="n" s="605">
-        <v>0.7292044165265223</v>
+        <v>0.8889922355512736</v>
       </c>
       <c r="C6" t="n" s="606">
-        <v>0.5738172417418865</v>
+        <v>0.8001674371667283</v>
       </c>
       <c r="D6" t="n" s="607">
-        <v>0.5738172417418865</v>
+        <v>0.8001674371667282</v>
       </c>
       <c r="E6" t="n" s="608">
-        <v>2.6928224130285425</v>
+        <v>8.008378873010198</v>
       </c>
       <c r="F6" t="n" s="609">
-        <v>0.08574287129476871</v>
+        <v>0.03521457279503988</v>
       </c>
       <c r="G6" t="n" s="610">
-        <v>2.475</v>
+        <v>2.0375</v>
       </c>
       <c r="H6" t="n" s="611">
-        <v>1.3725794545214347</v>
+        <v>1.3699499335788956</v>
       </c>
       <c r="I6" t="n" s="612">
-        <v>0.5738172417418865</v>
+        <v>0.8001674371667282</v>
       </c>
     </row>
     <row r="7">
@@ -7042,48 +7210,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="626">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="631">
-        <v>0.5738172417418865</v>
+        <v>0.8001674371667283</v>
       </c>
       <c r="C11" t="n" s="632">
-        <v>0.5738172417418865</v>
+        <v>0.8001674371667283</v>
       </c>
       <c r="D11" t="n" s="633">
-        <v>0.3292662269202664</v>
+        <v>0.6402679275019703</v>
       </c>
       <c r="E11" t="n" s="634">
-        <v>0.5738172417418865</v>
+        <v>0.8001674371667283</v>
       </c>
       <c r="F11" s="635"/>
       <c r="G11" s="636"/>
       <c r="H11" t="n" s="637">
-        <v>0.5738172417418865</v>
+        <v>0.8001674371667283</v>
       </c>
       <c r="I11" t="n" s="638">
-        <v>0.5738172417418865</v>
+        <v>0.8001674371667283</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="626">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="631">
-        <v>0.3292662269202664</v>
+        <v>0.6402679275019703</v>
       </c>
       <c r="C12" t="n" s="632">
-        <v>0.5738172417418865</v>
+        <v>0.8001674371667283</v>
       </c>
       <c r="D12" s="633"/>
       <c r="E12" s="634"/>
       <c r="F12" s="635"/>
       <c r="G12" s="636"/>
       <c r="H12" t="n" s="637">
-        <v>0.3292662269202664</v>
+        <v>0.6402679275019703</v>
       </c>
       <c r="I12" t="n" s="638">
-        <v>0.5738172417418865</v>
+        <v>0.8001674371667283</v>
       </c>
     </row>
     <row r="13">
@@ -7098,25 +7266,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="642">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="656">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="656">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="656">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="656">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="656">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="656">
         <v>9</v>
@@ -7127,54 +7295,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="652">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="657">
         <v>40.0</v>
       </c>
       <c r="C17" t="n" s="658">
-        <v>0.8998460638636057</v>
+        <v>0.9519234140381514</v>
       </c>
       <c r="D17" t="n" s="659">
-        <v>0.8870787004944619</v>
+        <v>0.948727420592113</v>
       </c>
       <c r="E17" t="n" s="660">
-        <v>0.6719685515938051</v>
+        <v>0.8486563982757387</v>
       </c>
       <c r="F17" t="n" s="661">
-        <v>0.5738172417418866</v>
+        <v>0.8001674371667283</v>
       </c>
       <c r="G17" t="n" s="662">
-        <v>2.575</v>
+        <v>2.2</v>
       </c>
       <c r="H17" t="n" s="663">
-        <v>1.6312257464549276</v>
+        <v>1.4884168150705015</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="652">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="657">
         <v>40.0</v>
       </c>
       <c r="C18" t="n" s="658">
-        <v>0.8735939516192397</v>
+        <v>0.9454313767861023</v>
       </c>
       <c r="D18" t="n" s="659">
-        <v>0.8870787004944619</v>
+        <v>0.948727420592113</v>
       </c>
       <c r="E18" t="n" s="660">
-        <v>0.6719685515938054</v>
+        <v>0.8486563982757386</v>
       </c>
       <c r="F18" t="n" s="661">
-        <v>0.5738172417418866</v>
+        <v>0.8001674371667282</v>
       </c>
       <c r="G18" t="n" s="662">
-        <v>2.375</v>
+        <v>1.875</v>
       </c>
       <c r="H18" t="n" s="663">
-        <v>1.4621287606844044</v>
+        <v>1.399404635312222</v>
       </c>
     </row>
     <row r="19">
@@ -7189,48 +7357,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="667">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="681">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="681">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="681">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="681">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="681">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="681">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="677">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="682">
+        <v>0.2</v>
+      </c>
+      <c r="C23" t="n" s="683">
+        <v>0.125</v>
+      </c>
+      <c r="D23" t="n" s="684">
         <v>0.225</v>
       </c>
-      <c r="C23" t="n" s="683">
-        <v>0.075</v>
-      </c>
-      <c r="D23" t="n" s="684">
-        <v>0.025</v>
-      </c>
       <c r="E23" t="n" s="685">
-        <v>0.25</v>
+        <v>0.175</v>
       </c>
       <c r="F23" t="n" s="686">
-        <v>0.425</v>
+        <v>0.275</v>
       </c>
       <c r="G23" t="n" s="687">
         <v>0.0</v>
@@ -7238,22 +7406,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="677">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="682">
-        <v>0.225</v>
+        <v>0.25</v>
       </c>
       <c r="C24" t="n" s="683">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D24" t="n" s="684">
-        <v>0.05</v>
+        <v>0.35</v>
       </c>
       <c r="E24" t="n" s="685">
-        <v>0.475</v>
+        <v>0.125</v>
       </c>
       <c r="F24" t="n" s="686">
-        <v>0.2</v>
+        <v>0.175</v>
       </c>
       <c r="G24" t="n" s="687">
         <v>0.0</v>
@@ -7286,7 +7454,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="689">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7335,31 +7503,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="718">
-        <v>0.8298295700320097</v>
+        <v>0.8486904030307038</v>
       </c>
       <c r="B6" t="n" s="719">
-        <v>0.83348486597188</v>
+        <v>0.8699581027735512</v>
       </c>
       <c r="C6" t="n" s="720">
-        <v>0.9384593876538412</v>
+        <v>0.9507784744992318</v>
       </c>
       <c r="D6" t="n" s="721">
-        <v>0.33357591788912794</v>
+        <v>0.4008326998930837</v>
       </c>
       <c r="E6" t="n" s="722">
-        <v>5.005460139323588</v>
+        <v>6.68982936521333</v>
       </c>
       <c r="F6" t="n" s="723">
-        <v>0.04114193586412822</v>
+        <v>0.03362093814322837</v>
       </c>
       <c r="G6" t="n" s="724">
-        <v>2.5625</v>
+        <v>1.9825</v>
       </c>
       <c r="H6" t="n" s="725">
-        <v>0.9297607908516728</v>
+        <v>0.9077691731904493</v>
       </c>
       <c r="I6" t="n" s="726">
-        <v>0.3042648979584515</v>
+        <v>0.3187167711515887</v>
       </c>
     </row>
     <row r="7">
@@ -7406,292 +7574,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="740">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="745">
-        <v>0.810765771723317</v>
+        <v>0.8434965285890718</v>
       </c>
       <c r="C11" t="n" s="746">
-        <v>0.8084600474922607</v>
+        <v>0.8621969681952355</v>
       </c>
       <c r="D11" t="n" s="747">
-        <v>0.9211246092316763</v>
+        <v>0.9396132813547996</v>
       </c>
       <c r="E11" t="n" s="748">
-        <v>0.31925671668274425</v>
+        <v>0.41009656655890425</v>
       </c>
       <c r="F11" t="n" s="749">
-        <v>4.220842894171622</v>
+        <v>6.256734390407114</v>
       </c>
       <c r="G11" t="n" s="750">
-        <v>0.04515616781409261</v>
+        <v>0.03626370238875959</v>
       </c>
       <c r="H11" t="n" s="751">
-        <v>0.07341516953036877</v>
+        <v>0.046775418767583885</v>
       </c>
       <c r="I11" t="n" s="752">
-        <v>0.30519378879315795</v>
+        <v>0.33892401307634845</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="740">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="745">
-        <v>0.7989343436228585</v>
+        <v>0.8281943417159763</v>
       </c>
       <c r="C12" t="n" s="746">
-        <v>0.7976289652131718</v>
+        <v>0.8551000962180202</v>
       </c>
       <c r="D12" t="n" s="747">
-        <v>0.9145833520011164</v>
+        <v>0.9338186473246507</v>
       </c>
       <c r="E12" t="n" s="748">
-        <v>0.30455846747886484</v>
+        <v>0.39602649178265115</v>
       </c>
       <c r="F12" t="n" s="749">
-        <v>3.941418622745947</v>
+        <v>5.901315831821577</v>
       </c>
       <c r="G12" t="n" s="750">
-        <v>0.04809134829110795</v>
+        <v>0.03738662796147708</v>
       </c>
       <c r="H12" t="n" s="751">
-        <v>0.07538790624888227</v>
+        <v>0.0505193860696798</v>
       </c>
       <c r="I12" t="n" s="752">
-        <v>0.2961138257817058</v>
+        <v>0.3275269660625553</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="740">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="745">
-        <v>0.8274118734610068</v>
+        <v>0.8357490814085416</v>
       </c>
       <c r="C13" t="n" s="746">
-        <v>0.8276226990751044</v>
+        <v>0.8580704908999974</v>
       </c>
       <c r="D13" t="n" s="747">
-        <v>0.9230665121331002</v>
+        <v>0.9415158998357522</v>
       </c>
       <c r="E13" t="n" s="748">
-        <v>0.3478841090514696</v>
+        <v>0.4018244806433754</v>
       </c>
       <c r="F13" t="n" s="749">
-        <v>4.801227856768091</v>
+        <v>6.045751136188365</v>
       </c>
       <c r="G13" t="n" s="750">
-        <v>0.04136228463566124</v>
+        <v>0.03543478184935568</v>
       </c>
       <c r="H13" t="n" s="751">
-        <v>0.0619944518926439</v>
+        <v>0.05191354031577339</v>
       </c>
       <c r="I13" t="n" s="752">
-        <v>0.3124197253897265</v>
+        <v>0.33892401307634845</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="740">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="745">
-        <v>0.8411040745608793</v>
+        <v>0.8522787376586742</v>
       </c>
       <c r="C14" t="n" s="746">
-        <v>0.843279249258152</v>
+        <v>0.8651492724091956</v>
       </c>
       <c r="D14" t="n" s="747">
-        <v>0.936076657784791</v>
+        <v>0.949075909643235</v>
       </c>
       <c r="E14" t="n" s="748">
-        <v>0.3741645082220453</v>
+        <v>0.41617608714741355</v>
       </c>
       <c r="F14" t="n" s="749">
-        <v>5.3807759678691784</v>
+        <v>6.415607003874933</v>
       </c>
       <c r="G14" t="n" s="750">
-        <v>0.0387037988540912</v>
+        <v>0.034750383558496065</v>
       </c>
       <c r="H14" t="n" s="751">
-        <v>0.06121923928801367</v>
+        <v>0.0562130835854956</v>
       </c>
       <c r="I14" t="n" s="752">
-        <v>0.3124197253897265</v>
+        <v>0.32960083018814335</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="740">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="745">
-        <v>0.7993273013746451</v>
+        <v>0.842908304949178</v>
       </c>
       <c r="C15" t="n" s="746">
-        <v>0.8034949078442835</v>
+        <v>0.8636889490933515</v>
       </c>
       <c r="D15" t="n" s="747">
-        <v>0.916314962933147</v>
+        <v>0.9393654529190592</v>
       </c>
       <c r="E15" t="n" s="748">
-        <v>0.3123958715773318</v>
+        <v>0.4131517525266747</v>
       </c>
       <c r="F15" t="n" s="749">
-        <v>4.088926648310824</v>
+        <v>6.3361623532991596</v>
       </c>
       <c r="G15" t="n" s="750">
-        <v>0.049032194589003875</v>
+        <v>0.033998073059837625</v>
       </c>
       <c r="H15" t="n" s="751">
-        <v>0.07801034585011753</v>
+        <v>0.05215806857363849</v>
       </c>
       <c r="I15" t="n" s="752">
-        <v>0.3005117966290444</v>
+        <v>0.33892401307634845</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="740">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="745">
-        <v>0.8047078219454114</v>
+        <v>0.8330154305719395</v>
       </c>
       <c r="C16" t="n" s="746">
-        <v>0.8102682502186132</v>
+        <v>0.8541725922450262</v>
       </c>
       <c r="D16" t="n" s="747">
-        <v>0.921250644724877</v>
+        <v>0.9328603648283612</v>
       </c>
       <c r="E16" t="n" s="748">
-        <v>0.32180906866777303</v>
+        <v>0.39424212975973205</v>
       </c>
       <c r="F16" t="n" s="749">
-        <v>4.270599154607611</v>
+        <v>5.857421491577547</v>
       </c>
       <c r="G16" t="n" s="750">
-        <v>0.0478391442528052</v>
+        <v>0.03594000888694877</v>
       </c>
       <c r="H16" t="n" s="751">
-        <v>0.07812082332126657</v>
+        <v>0.05688980398187427</v>
       </c>
       <c r="I16" t="n" s="752">
-        <v>0.3023336997286472</v>
+        <v>0.3182037831743503</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="740">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="745">
-        <v>0.8201124153664998</v>
+        <v>0.8205786702457154</v>
       </c>
       <c r="C17" t="n" s="746">
-        <v>0.8302957252828151</v>
+        <v>0.8498737758854166</v>
       </c>
       <c r="D17" t="n" s="747">
-        <v>0.9117550520784705</v>
+        <v>0.940533559454512</v>
       </c>
       <c r="E17" t="n" s="748">
-        <v>0.35217326168733654</v>
+        <v>0.38612902978464564</v>
       </c>
       <c r="F17" t="n" s="749">
-        <v>4.89260348135907</v>
+        <v>5.661061422798143</v>
       </c>
       <c r="G17" t="n" s="750">
-        <v>0.04334684473577742</v>
+        <v>0.04062704327925316</v>
       </c>
       <c r="H17" t="n" s="751">
-        <v>0.06088842483466794</v>
+        <v>0.06960232422186483</v>
       </c>
       <c r="I17" t="n" s="752">
-        <v>0.30519378879315795</v>
+        <v>0.3023336997286472</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="740">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="745">
-        <v>0.8240383260532619</v>
+        <v>0.8324151237538011</v>
       </c>
       <c r="C18" t="n" s="746">
-        <v>0.8294628584312145</v>
+        <v>0.860397812878948</v>
       </c>
       <c r="D18" t="n" s="747">
-        <v>0.9142232861074396</v>
+        <v>0.9496310579790488</v>
       </c>
       <c r="E18" t="n" s="748">
-        <v>0.3508285177068681</v>
+        <v>0.40645819212622736</v>
       </c>
       <c r="F18" t="n" s="749">
-        <v>4.863825268800195</v>
+        <v>6.163211555796609</v>
       </c>
       <c r="G18" t="n" s="750">
-        <v>0.04221489178542823</v>
+        <v>0.03738605515878082</v>
       </c>
       <c r="H18" t="n" s="751">
-        <v>0.06604964893500065</v>
+        <v>0.06882388019192064</v>
       </c>
       <c r="I18" t="n" s="752">
-        <v>0.32960083018814335</v>
+        <v>0.32803995403979375</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="740">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="745">
-        <v>0.802088517937134</v>
+        <v>0.8239294772964638</v>
       </c>
       <c r="C19" t="n" s="746">
-        <v>0.8113665436942309</v>
+        <v>0.8513413377822895</v>
       </c>
       <c r="D19" t="n" s="747">
-        <v>0.9264126901341962</v>
+        <v>0.933015116988015</v>
       </c>
       <c r="E19" t="n" s="748">
-        <v>0.3233737215295717</v>
+        <v>0.3888700849459135</v>
       </c>
       <c r="F19" t="n" s="749">
-        <v>4.301286524586766</v>
+        <v>5.726819581730798</v>
       </c>
       <c r="G19" t="n" s="750">
-        <v>0.04904634027466224</v>
+        <v>0.03860003198783363</v>
       </c>
       <c r="H19" t="n" s="751">
-        <v>0.0791614275417329</v>
+        <v>0.06549827177279796</v>
       </c>
       <c r="I19" t="n" s="752">
-        <v>0.2985805983992401</v>
+        <v>0.3119067374124881</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="740">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="745">
-        <v>0.8094427244582043</v>
+        <v>0.8268590589696805</v>
       </c>
       <c r="C20" t="n" s="746">
-        <v>0.8154680239016412</v>
+        <v>0.8547503413704222</v>
       </c>
       <c r="D20" t="n" s="747">
-        <v>0.9353723542698706</v>
+        <v>0.9372087885669037</v>
       </c>
       <c r="E20" t="n" s="748">
-        <v>0.3293149362872742</v>
+        <v>0.39535218365529917</v>
       </c>
       <c r="F20" t="n" s="749">
-        <v>4.419115001873615</v>
+        <v>5.884697764076985</v>
       </c>
       <c r="G20" t="n" s="750">
-        <v>0.04688856063558766</v>
+        <v>0.03831056707800972</v>
       </c>
       <c r="H20" t="n" s="751">
-        <v>0.08353795661700814</v>
+        <v>0.06572461652588941</v>
       </c>
       <c r="I20" t="n" s="752">
-        <v>0.2979357288813086</v>
+        <v>0.32174290827793156</v>
       </c>
     </row>
     <row r="21">
@@ -7706,25 +7874,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="756">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="770">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="770">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="770">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="770">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="770">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="770">
         <v>9</v>
@@ -7735,262 +7903,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="766">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="771">
         <v>40.0</v>
       </c>
       <c r="C25" t="n" s="772">
-        <v>0.6560951464985006</v>
+        <v>0.6546068174800515</v>
       </c>
       <c r="D25" t="n" s="773">
-        <v>0.7141121979855184</v>
+        <v>0.6296534924421922</v>
       </c>
       <c r="E25" t="n" s="774">
-        <v>0.7093997560463989</v>
+        <v>0.6291616994201682</v>
       </c>
       <c r="F25" t="n" s="775">
-        <v>0.5681505223736266</v>
+        <v>0.6220521120193704</v>
       </c>
       <c r="G25" t="n" s="776">
-        <v>3.25</v>
+        <v>0.375</v>
       </c>
       <c r="H25" t="n" s="777">
-        <v>1.255755978254962</v>
+        <v>0.4902903378454601</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="766">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="771">
         <v>40.0</v>
       </c>
       <c r="C26" t="n" s="772">
-        <v>0.7550211708510791</v>
+        <v>0.7316119741044345</v>
       </c>
       <c r="D26" t="n" s="773">
-        <v>0.7977532759932567</v>
+        <v>0.7042754268599437</v>
       </c>
       <c r="E26" t="n" s="774">
-        <v>0.7988276798475196</v>
+        <v>0.7137362398814509</v>
       </c>
       <c r="F26" t="n" s="775">
-        <v>0.6774661627044338</v>
+        <v>0.6215032393682792</v>
       </c>
       <c r="G26" t="n" s="776">
-        <v>3.775</v>
+        <v>1.225</v>
       </c>
       <c r="H26" t="n" s="777">
-        <v>1.4048907248316322</v>
+        <v>1.7318657495195677</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="766">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="771">
         <v>40.0</v>
       </c>
       <c r="C27" t="n" s="772">
-        <v>0.4622569733826753</v>
+        <v>0.7069761251632792</v>
       </c>
       <c r="D27" t="n" s="773">
-        <v>0.5512066760381348</v>
+        <v>0.6735252601834992</v>
       </c>
       <c r="E27" t="n" s="774">
-        <v>0.5349242679441413</v>
+        <v>0.6733587560420986</v>
       </c>
       <c r="F27" t="n" s="775">
-        <v>0.36404316422350597</v>
+        <v>0.5750748920998392</v>
       </c>
       <c r="G27" t="n" s="776">
-        <v>3.35</v>
+        <v>1.25</v>
       </c>
       <c r="H27" t="n" s="777">
-        <v>1.0753651735156093</v>
+        <v>1.9047847983972175</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="766">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="771">
         <v>40.0</v>
       </c>
       <c r="C28" t="n" s="772">
-        <v>0.32338078768838235</v>
+        <v>0.5133086584858643</v>
       </c>
       <c r="D28" t="n" s="773">
-        <v>0.4016568292087279</v>
+        <v>0.5974101963786353</v>
       </c>
       <c r="E28" t="n" s="774">
-        <v>0.3558943581082286</v>
+        <v>0.561191215795981</v>
       </c>
       <c r="F28" t="n" s="775">
-        <v>0.19518397261666162</v>
+        <v>0.4911738652803278</v>
       </c>
       <c r="G28" t="n" s="776">
-        <v>3.75</v>
+        <v>0.925</v>
       </c>
       <c r="H28" t="n" s="777">
-        <v>1.255755978254962</v>
+        <v>0.2667467828369185</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="766">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="771">
         <v>40.0</v>
       </c>
       <c r="C29" t="n" s="772">
-        <v>0.7485502553616025</v>
+        <v>0.5550241359935013</v>
       </c>
       <c r="D29" t="n" s="773">
-        <v>0.7531541595620952</v>
+        <v>0.6134500329335204</v>
       </c>
       <c r="E29" t="n" s="774">
-        <v>0.7376664776694668</v>
+        <v>0.602723981106948</v>
       </c>
       <c r="F29" t="n" s="775">
-        <v>0.6637722977524089</v>
+        <v>0.44787792644903074</v>
       </c>
       <c r="G29" t="n" s="776">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="H29" t="n" s="777">
-        <v>1.4884168150705015</v>
+        <v>1.255755978254962</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="766">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="771">
         <v>40.0</v>
       </c>
       <c r="C30" t="n" s="772">
-        <v>0.7077281928194447</v>
+        <v>0.6663504297452234</v>
       </c>
       <c r="D30" t="n" s="773">
-        <v>0.6995879190376111</v>
+        <v>0.7137389548062574</v>
       </c>
       <c r="E30" t="n" s="774">
-        <v>0.6769167554721822</v>
+        <v>0.7119694127199065</v>
       </c>
       <c r="F30" t="n" s="775">
-        <v>0.6192777159293464</v>
+        <v>0.5657482105542398</v>
       </c>
       <c r="G30" t="n" s="776">
-        <v>1.875</v>
+        <v>3.775</v>
       </c>
       <c r="H30" t="n" s="777">
-        <v>1.399404635312222</v>
+        <v>1.4048907248316322</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="766">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="771">
         <v>40.0</v>
       </c>
       <c r="C31" t="n" s="772">
-        <v>0.6136680033854072</v>
+        <v>0.7757970850332571</v>
       </c>
       <c r="D31" t="n" s="773">
-        <v>0.5267990513457362</v>
+        <v>0.7567675260038574</v>
       </c>
       <c r="E31" t="n" s="774">
-        <v>0.5283387797876357</v>
+        <v>0.7234454460918618</v>
       </c>
       <c r="F31" t="n" s="775">
-        <v>0.4760397491108473</v>
+        <v>0.686728926523515</v>
       </c>
       <c r="G31" t="n" s="776">
-        <v>1.225</v>
+        <v>2.575</v>
       </c>
       <c r="H31" t="n" s="777">
-        <v>1.7318657495195677</v>
+        <v>1.6312257464549276</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="766">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="771">
         <v>40.0</v>
       </c>
       <c r="C32" t="n" s="772">
-        <v>0.6164145845272432</v>
+        <v>0.6754245185610908</v>
       </c>
       <c r="D32" t="n" s="773">
-        <v>0.5344513801782823</v>
+        <v>0.6489499455613089</v>
       </c>
       <c r="E32" t="n" s="774">
-        <v>0.5343433269997757</v>
+        <v>0.5907282200164328</v>
       </c>
       <c r="F32" t="n" s="775">
-        <v>0.46320071057515566</v>
+        <v>0.5720848910053579</v>
       </c>
       <c r="G32" t="n" s="776">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="H32" t="n" s="777">
-        <v>1.9047847983972175</v>
+        <v>1.4621287606844044</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="766">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="771">
         <v>40.0</v>
       </c>
       <c r="C33" t="n" s="772">
-        <v>0.7297207390621812</v>
+        <v>0.7465686522228653</v>
       </c>
       <c r="D33" t="n" s="773">
-        <v>0.6906841883787112</v>
+        <v>0.742230088091673</v>
       </c>
       <c r="E33" t="n" s="774">
-        <v>0.6552784131446878</v>
+        <v>0.7267813719836825</v>
       </c>
       <c r="F33" t="n" s="775">
-        <v>0.6297244333474711</v>
+        <v>0.6587988900138089</v>
       </c>
       <c r="G33" t="n" s="776">
-        <v>2.575</v>
+        <v>2.2</v>
       </c>
       <c r="H33" t="n" s="777">
-        <v>1.6312257464549276</v>
+        <v>1.4884168150705015</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="766">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="771">
         <v>40.0</v>
       </c>
       <c r="C34" t="n" s="772">
-        <v>0.6688795131562963</v>
+        <v>0.7208367297906526</v>
       </c>
       <c r="D34" t="n" s="773">
-        <v>0.65687542652437</v>
+        <v>0.7078516819727836</v>
       </c>
       <c r="E34" t="n" s="774">
-        <v>0.5969389255493777</v>
+        <v>0.6855941625498281</v>
       </c>
       <c r="F34" t="n" s="775">
-        <v>0.5669452217324258</v>
+        <v>0.6329649380966036</v>
       </c>
       <c r="G34" t="n" s="776">
-        <v>2.375</v>
+        <v>1.875</v>
       </c>
       <c r="H34" t="n" s="777">
-        <v>1.4621287606844044</v>
+        <v>1.399404635312222</v>
       </c>
     </row>
     <row r="35">
@@ -8005,54 +8173,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="781">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="795">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="795">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="795">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="795">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="795">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="795">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="795">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="791">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="796">
-        <v>0.075</v>
+        <v>0.625</v>
       </c>
       <c r="C39" t="n" s="797">
-        <v>0.05</v>
+        <v>0.375</v>
       </c>
       <c r="D39" t="n" s="798">
         <v>0.0</v>
       </c>
       <c r="E39" t="n" s="799">
-        <v>0.375</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="800">
-        <v>0.425</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="801">
-        <v>0.075</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="802">
         <v>0.0</v>
@@ -8060,25 +8228,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="791">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="796">
-        <v>0.075</v>
+        <v>0.625</v>
       </c>
       <c r="C40" t="n" s="797">
-        <v>0.0</v>
+        <v>0.05</v>
       </c>
       <c r="D40" t="n" s="798">
-        <v>0.05</v>
+        <v>0.0</v>
       </c>
       <c r="E40" t="n" s="799">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F40" t="n" s="800">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="G40" t="n" s="801">
-        <v>0.375</v>
+        <v>0.025</v>
       </c>
       <c r="H40" t="n" s="802">
         <v>0.0</v>
@@ -8086,25 +8254,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="791">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="796">
-        <v>0.05</v>
+        <v>0.625</v>
       </c>
       <c r="C41" t="n" s="797">
-        <v>0.025</v>
+        <v>0.1</v>
       </c>
       <c r="D41" t="n" s="798">
-        <v>0.025</v>
+        <v>0.0</v>
       </c>
       <c r="E41" t="n" s="799">
-        <v>0.375</v>
+        <v>0.075</v>
       </c>
       <c r="F41" t="n" s="800">
-        <v>0.475</v>
+        <v>0.075</v>
       </c>
       <c r="G41" t="n" s="801">
-        <v>0.05</v>
+        <v>0.125</v>
       </c>
       <c r="H41" t="n" s="802">
         <v>0.0</v>
@@ -8112,25 +8280,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="791">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="796">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="C42" t="n" s="797">
-        <v>0.0</v>
+        <v>0.925</v>
       </c>
       <c r="D42" t="n" s="798">
-        <v>0.025</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="799">
-        <v>0.35</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="800">
-        <v>0.225</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="801">
-        <v>0.35</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="802">
         <v>0.0</v>
@@ -8138,25 +8306,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="791">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="796">
-        <v>0.2</v>
+        <v>0.075</v>
       </c>
       <c r="C43" t="n" s="797">
-        <v>0.125</v>
+        <v>0.05</v>
       </c>
       <c r="D43" t="n" s="798">
-        <v>0.225</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n" s="799">
-        <v>0.175</v>
+        <v>0.375</v>
       </c>
       <c r="F43" t="n" s="800">
-        <v>0.275</v>
+        <v>0.425</v>
       </c>
       <c r="G43" t="n" s="801">
-        <v>0.0</v>
+        <v>0.075</v>
       </c>
       <c r="H43" t="n" s="802">
         <v>0.0</v>
@@ -8164,25 +8332,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="791">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="796">
-        <v>0.25</v>
+        <v>0.075</v>
       </c>
       <c r="C44" t="n" s="797">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="D44" t="n" s="798">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="E44" t="n" s="799">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="F44" t="n" s="800">
-        <v>0.175</v>
+        <v>0.3</v>
       </c>
       <c r="G44" t="n" s="801">
-        <v>0.0</v>
+        <v>0.375</v>
       </c>
       <c r="H44" t="n" s="802">
         <v>0.0</v>
@@ -8190,25 +8358,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="791">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="796">
-        <v>0.625</v>
+        <v>0.225</v>
       </c>
       <c r="C45" t="n" s="797">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="D45" t="n" s="798">
-        <v>0.0</v>
+        <v>0.025</v>
       </c>
       <c r="E45" t="n" s="799">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="F45" t="n" s="800">
-        <v>0.15</v>
+        <v>0.425</v>
       </c>
       <c r="G45" t="n" s="801">
-        <v>0.025</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="802">
         <v>0.0</v>
@@ -8216,25 +8384,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="791">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="796">
-        <v>0.625</v>
+        <v>0.225</v>
       </c>
       <c r="C46" t="n" s="797">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D46" t="n" s="798">
-        <v>0.0</v>
+        <v>0.05</v>
       </c>
       <c r="E46" t="n" s="799">
-        <v>0.075</v>
+        <v>0.475</v>
       </c>
       <c r="F46" t="n" s="800">
-        <v>0.075</v>
+        <v>0.2</v>
       </c>
       <c r="G46" t="n" s="801">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="802">
         <v>0.0</v>
@@ -8242,22 +8410,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="791">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="796">
+        <v>0.2</v>
+      </c>
+      <c r="C47" t="n" s="797">
+        <v>0.125</v>
+      </c>
+      <c r="D47" t="n" s="798">
         <v>0.225</v>
       </c>
-      <c r="C47" t="n" s="797">
-        <v>0.075</v>
-      </c>
-      <c r="D47" t="n" s="798">
-        <v>0.025</v>
-      </c>
       <c r="E47" t="n" s="799">
-        <v>0.25</v>
+        <v>0.175</v>
       </c>
       <c r="F47" t="n" s="800">
-        <v>0.425</v>
+        <v>0.275</v>
       </c>
       <c r="G47" t="n" s="801">
         <v>0.0</v>
@@ -8268,22 +8436,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="791">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="796">
-        <v>0.225</v>
+        <v>0.25</v>
       </c>
       <c r="C48" t="n" s="797">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D48" t="n" s="798">
-        <v>0.05</v>
+        <v>0.35</v>
       </c>
       <c r="E48" t="n" s="799">
-        <v>0.475</v>
+        <v>0.125</v>
       </c>
       <c r="F48" t="n" s="800">
-        <v>0.2</v>
+        <v>0.175</v>
       </c>
       <c r="G48" t="n" s="801">
         <v>0.0</v>
